--- a/src/main/java/lab6/lab6.xlsx
+++ b/src/main/java/lab6/lab6.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="18420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="18420" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Тест-план" sheetId="1" r:id="rId1"/>
+    <sheet name="Тест-кейсы" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -23,9 +24,357 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="108">
+  <si>
+    <t>LUXURY WATCHES</t>
+  </si>
+  <si>
+    <t>Introduction:</t>
+  </si>
+  <si>
+    <t>Objective:</t>
+  </si>
+  <si>
+    <t>Principles:</t>
+  </si>
+  <si>
+    <t>In Scope</t>
+  </si>
+  <si>
+    <t>Дата  завершения</t>
+  </si>
+  <si>
+    <t>Дата сдачи</t>
+  </si>
+  <si>
+    <t>Функциональное тестирование</t>
+  </si>
+  <si>
+    <t>Тестирование юзабилити</t>
+  </si>
+  <si>
+    <t>Раннее тестирование; оптимальное кол-во документации; предотвращение багов; распространение идей качеств ана всю команду</t>
+  </si>
+  <si>
+    <t>Entry Conditions (for test execution):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Реализован MVP </t>
+  </si>
+  <si>
+    <t>Есть точка входа GUI  для приложения и редактора</t>
+  </si>
+  <si>
+    <t>Нет известных блокирующих багов</t>
+  </si>
+  <si>
+    <t>Exit Conditions (for test execution):</t>
+  </si>
+  <si>
+    <t>Все включенное в план тестирования завершено</t>
+  </si>
+  <si>
+    <t>Нет багов с высоким приоритетом критичности</t>
+  </si>
+  <si>
+    <t>Низкоприоритетные баги не влияют на основной сценарий</t>
+  </si>
+  <si>
+    <t>UI тестирование</t>
+  </si>
+  <si>
+    <t>Out of Scope</t>
+  </si>
+  <si>
+    <t>Risks</t>
+  </si>
+  <si>
+    <t>Кросс-платформенное тестирование</t>
+  </si>
+  <si>
+    <t>Регрессионного тестирования нет</t>
+  </si>
+  <si>
+    <t>3-4 тесткейса для каждого вида тестирования</t>
+  </si>
+  <si>
+    <t>Неправильно спроеткированная архитектура</t>
+  </si>
+  <si>
+    <t>Неправильно/изменяющиеся приоритеты</t>
+  </si>
+  <si>
+    <t>Недоступность/отстутствие тестовых сред</t>
+  </si>
+  <si>
+    <t>Некорректная оценка трудозатрат</t>
+  </si>
+  <si>
+    <t>People</t>
+  </si>
+  <si>
+    <t>Представление современной актуальной обратной связи по проекту в рамках критериев качеств</t>
+  </si>
+  <si>
+    <t>Тестировщик</t>
+  </si>
+  <si>
+    <t>Test Environment</t>
+  </si>
+  <si>
+    <t>Предполагается, что большая часть пользователей будет работать в Windows-системах и браузерах IE, Google Chrome и Mozilla Firefox</t>
+  </si>
+  <si>
+    <t>Timescales (each iteration)</t>
+  </si>
+  <si>
+    <t>Планирование</t>
+  </si>
+  <si>
+    <t>Тест-анализ и Тест-дизайн</t>
+  </si>
+  <si>
+    <t>Выполнение тестов</t>
+  </si>
+  <si>
+    <t>Разработка тестовых скриптов</t>
+  </si>
+  <si>
+    <t>Подведение итогов</t>
+  </si>
+  <si>
+    <t>2 дня</t>
+  </si>
+  <si>
+    <t>3 дня</t>
+  </si>
+  <si>
+    <t>1 день</t>
+  </si>
+  <si>
+    <t>Интернет магазин продажи наручных часов</t>
+  </si>
+  <si>
+    <t>Project name</t>
+  </si>
+  <si>
+    <t>Build (ver.)</t>
+  </si>
+  <si>
+    <t>Execution date</t>
+  </si>
+  <si>
+    <t>Who execute</t>
+  </si>
+  <si>
+    <t>Канюшкова М.В.</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Precondition</t>
+  </si>
+  <si>
+    <t>Steps to reproduce</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Test case status</t>
+  </si>
+  <si>
+    <t>Регистрация пользователя</t>
+  </si>
+  <si>
+    <t>Логинация пользователя</t>
+  </si>
+  <si>
+    <t>Добавление товара в корзину</t>
+  </si>
+  <si>
+    <t>Неавторизированный пользователь. Интернет подключен. Находимся на главной странице сервиса</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку "Account" в header
+2. В появившемся окне нажать на "Регистрация"
+3. Ввести login: login
+4. Ввести password: password
+5. Ввести имя: name    
+6. Ввести email: email@email.email
+7. Ввести address: address
+8. Нажать на кнопку "Зарегестрироваться"</t>
+  </si>
+  <si>
+    <t>Произошла регистрация пользователя</t>
+  </si>
+  <si>
+    <t>Все поля после ввода данных имели зеленый цвет и показывали галочку</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку "Account" в header
+2. В появившемся окне нажать на Вход
+3. Ввести login: login
+4. Ввести password: password
+5. Нажать на кнопку "Вход"</t>
+  </si>
+  <si>
+    <t>Произошел вход в аккаунт пользователя</t>
+  </si>
+  <si>
+    <t>Произошла ошибка регистрации, которую нельзя прочесть, так как появилось только красная плашка сверху </t>
+  </si>
+  <si>
+    <t>Произошла ошибка входа, появилась красная плашка с  текстом "Логин/пароль введены неверно"</t>
+  </si>
+  <si>
+    <t>Так как в прошлом шаге не получилось создать аккаунт по непонятной причине, то и здесь войти не получилось</t>
+  </si>
+  <si>
+    <t>1. Листаем ниже до раздела виджета часов
+2. Нажимаем на первые часы "CASIO MRP-700-1AVEF"
+3. Нажимаем на "ADD TO CARD"
+4. В появившемся окне нажимаем на "Продолжить покупки"</t>
+  </si>
+  <si>
+    <t>Товар добавился в корзину</t>
+  </si>
+  <si>
+    <t>Подписка на обновления-рекламу</t>
+  </si>
+  <si>
+    <t>1. Листаем страницу до конца (footer)
+2. Вводим в email (temp mail): yotiw63517@aalyaa.com
+3. Нажимаем на "Subscribe"</t>
+  </si>
+  <si>
+    <t>Произошла подписка на обновления и рекламу</t>
+  </si>
+  <si>
+    <t>Страница обновилась, не было никакого уведомления что подписка оформилась и</t>
+  </si>
+  <si>
+    <t>Поиск товаров</t>
+  </si>
+  <si>
+    <t>Корзина покупок</t>
+  </si>
+  <si>
+    <t>Использование разных денежных валют</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку "Men" в menubar</t>
+  </si>
+  <si>
+    <t>Использование фильтров в просмотре товаров</t>
+  </si>
+  <si>
+    <t>Не понятно как работают фильтр, то что они добавляют новое условие для выбора И или ИЛИ</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку "Men" в menubar
+2. Нажать на фильтр "механика с автоподводом"
+3. Нажать на фильтр "механика сручным заводом"</t>
+  </si>
+  <si>
+    <t>Checkbox фильтров четко показывают какое условие присоединения параметров</t>
+  </si>
+  <si>
+    <t>1. Ввести в поле поиска "111"</t>
+  </si>
+  <si>
+    <t>В первых (релевантных) результатах не показываются наименования с содержанием поискового запроса, хотя в превью поиска есть такие наименования</t>
+  </si>
+  <si>
+    <t>В первых результатах поиска показываются наименования с содержанием поискового запроса</t>
+  </si>
+  <si>
+    <t>Неавторизированный пользователь. Интернет подключен. Находимся на главной странице сервиса. В корзину был добавлен товар.</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку "Корзина" в header</t>
+  </si>
+  <si>
+    <t>Справа от цены есть крестик, который не отчищает корзину. Также получается есть дублирование кнопок для "очистки корзины" и "продолжения покупок"</t>
+  </si>
+  <si>
+    <t>Кнопки корзины структуризированы и не имеют дубляженей в функционале</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку "EUR" в header</t>
+  </si>
+  <si>
+    <t>На всем сервисе меняется валюта</t>
+  </si>
+  <si>
+    <t>1. Листаем страницу до поля подписки (footer)</t>
+  </si>
+  <si>
+    <t>Поле почты и кнопка подписки имеют одинаковую высоту и находятся на одном уровне</t>
+  </si>
+  <si>
+    <t>Поле почты и кнопка подписки не имеют одинаковую высоту и находятся не на одном уровне</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку "Men" в menubar
+2. Дойти до 16ого товара</t>
+  </si>
+  <si>
+    <t>Плитка 15ого товара не соотносится по высоте с плитками остальных товаров. Следующая строка имеет только одну смещенную плитку.</t>
+  </si>
+  <si>
+    <t>6ая строка плиток имеет одинаковый размер и имеет 3 плитки</t>
+  </si>
+  <si>
+    <t>Большое количество товаров не имеет изображения и описания</t>
+  </si>
+  <si>
+    <t>Товары должны иметь изображение</t>
+  </si>
+  <si>
+    <t>Главная страница на Safari iOs14</t>
+  </si>
+  <si>
+    <t>В header текст имеет разный размер и не понятно какая кнопка за что отвечает</t>
+  </si>
+  <si>
+    <t>В header текст имеет одинаковый размер и кнопки разделены большим отступом</t>
+  </si>
+  <si>
+    <t>1. Перейти к header</t>
+  </si>
+  <si>
+    <t>1. Перейти к полю поиска</t>
+  </si>
+  <si>
+    <t>Поле поиска имеет маленький размер и изображение лупы не адаптировалось к размеру поля</t>
+  </si>
+  <si>
+    <t>Поле поиска имеет размер достаточный, чтобы видеть поисковую строку и изображение лупы адаптировано к размеру поля</t>
+  </si>
+  <si>
+    <t>Сводная таблица товаров не помещается в ширину экрана мобильного телефона</t>
+  </si>
+  <si>
+    <t>Сводная таблица товаров помещается в ширину экрана мобильного телефона</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,16 +383,172 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="JetBrains Mono"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6D4CB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6D9EEB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE06666"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93C47D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -51,18 +556,835 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFD966"/>
+      <color rgb="FF93C47D"/>
+      <color rgb="FFE06666"/>
+      <color rgb="FFFF7D7D"/>
+      <color rgb="FFC6D4CB"/>
+      <color rgb="FF8BA796"/>
+      <color rgb="FFCCCCFF"/>
+      <color rgb="FFFFCCCC"/>
+      <color rgb="FFFF9999"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -337,14 +1659,879 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="3.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="8" max="8" width="3.7109375" customWidth="1"/>
+    <col min="9" max="9" width="28.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="89"/>
+      <c r="F1" s="94" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="95"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="104"/>
+      <c r="C2" s="1">
+        <v>25569</v>
+      </c>
+      <c r="D2" s="90" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="91"/>
+      <c r="F2" s="96" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="97"/>
+    </row>
+    <row r="3" spans="1:10" ht="30" customHeight="1" thickBot="1">
+      <c r="A3" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="106"/>
+      <c r="C3" s="2">
+        <v>25570</v>
+      </c>
+      <c r="D3" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="93"/>
+      <c r="F3" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="99"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="107" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="108"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="51"/>
+      <c r="J4" s="52"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="75"/>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="83"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="13">
+        <v>1</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="77"/>
+      <c r="D6" s="5">
+        <v>2</v>
+      </c>
+      <c r="E6" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="83"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="54"/>
+      <c r="J6" s="55"/>
+    </row>
+    <row r="7" spans="1:10" ht="45" customHeight="1" thickBot="1">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="77"/>
+      <c r="D7" s="6">
+        <v>3</v>
+      </c>
+      <c r="E7" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="16">
+        <v>1</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="59"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" thickBot="1">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="79"/>
+      <c r="D8" s="85" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="61"/>
+      <c r="J8" s="62"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1">
+      <c r="A9" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="68"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="17">
+        <v>1</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1">
+      <c r="A10" s="8">
+        <v>1</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="47"/>
+      <c r="D10" s="7">
+        <v>2</v>
+      </c>
+      <c r="E10" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="68"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="17">
+        <v>2</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" customHeight="1" thickBot="1">
+      <c r="A11" s="9">
+        <v>2</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="57"/>
+      <c r="D11" s="10">
+        <v>3</v>
+      </c>
+      <c r="E11" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="70"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="17">
+        <v>3</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1">
+      <c r="D12" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="17">
+        <v>4</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D13" s="11">
+        <v>1</v>
+      </c>
+      <c r="E13" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="66"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="20">
+        <v>5</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1">
+      <c r="D14" s="11">
+        <v>2</v>
+      </c>
+      <c r="E14" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="66"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="11">
+        <v>3</v>
+      </c>
+      <c r="E15" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="66"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="12">
+        <v>4</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="48"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="B5:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" customWidth="1"/>
+    <col min="5" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" customHeight="1" thickBot="1">
+      <c r="A1" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1">
+      <c r="A2" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" thickBot="1">
+      <c r="A3" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="26">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" thickBot="1">
+      <c r="A4" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="A5" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A6" s="110" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="112"/>
+    </row>
+    <row r="7" spans="1:8" ht="114.75">
+      <c r="A7" s="31">
+        <v>1</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="33"/>
+    </row>
+    <row r="8" spans="1:8" ht="72">
+      <c r="A8" s="31">
+        <v>2</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="33"/>
+    </row>
+    <row r="9" spans="1:8" ht="74.25" customHeight="1">
+      <c r="A9" s="31">
+        <v>3</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="32"/>
+      <c r="H9" s="34"/>
+    </row>
+    <row r="10" spans="1:8" ht="58.5" thickBot="1">
+      <c r="A10" s="31">
+        <v>4</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="32"/>
+      <c r="H10" s="35"/>
+    </row>
+    <row r="11" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A11" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="114"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="115"/>
+    </row>
+    <row r="12" spans="1:8" ht="57.75">
+      <c r="A12" s="36">
+        <v>5</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="32"/>
+      <c r="H12" s="35"/>
+    </row>
+    <row r="13" spans="1:8" ht="100.5">
+      <c r="A13" s="36">
+        <v>6</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="32"/>
+      <c r="H13" s="35"/>
+    </row>
+    <row r="14" spans="1:8" ht="100.5">
+      <c r="A14" s="36">
+        <v>7</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="32"/>
+      <c r="H14" s="35"/>
+    </row>
+    <row r="15" spans="1:8" ht="58.5" thickBot="1">
+      <c r="A15" s="36">
+        <v>8</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="32"/>
+      <c r="H15" s="34"/>
+    </row>
+    <row r="16" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A16" s="113" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="114"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="115"/>
+    </row>
+    <row r="17" spans="1:8" ht="72">
+      <c r="A17" s="36">
+        <v>9</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="32"/>
+      <c r="H17" s="35"/>
+    </row>
+    <row r="18" spans="1:8" ht="86.25">
+      <c r="A18" s="36">
+        <v>12</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="32"/>
+      <c r="H18" s="35"/>
+    </row>
+    <row r="19" spans="1:8" ht="58.5" thickBot="1">
+      <c r="A19" s="36">
+        <v>11</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="32"/>
+      <c r="H19" s="35"/>
+    </row>
+    <row r="20" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A20" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="41"/>
+    </row>
+    <row r="21" spans="1:8" ht="57.75">
+      <c r="A21" s="42">
+        <v>12</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="32"/>
+      <c r="H21" s="35"/>
+    </row>
+    <row r="22" spans="1:8" ht="72">
+      <c r="A22" s="42">
+        <v>13</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" s="32"/>
+      <c r="H22" s="35"/>
+    </row>
+    <row r="23" spans="1:8" ht="72">
+      <c r="A23" s="42">
+        <v>14</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="32"/>
+      <c r="H23" s="37"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="42"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A16:H16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/java/lab6/lab6.xlsx
+++ b/src/main/java/lab6/lab6.xlsx
@@ -315,9 +315,6 @@
     <t>1. Нажать на кнопку "EUR" в header</t>
   </si>
   <si>
-    <t>На всем сервисе меняется валюта</t>
-  </si>
-  <si>
     <t>1. Листаем страницу до поля подписки (footer)</t>
   </si>
   <si>
@@ -368,6 +365,9 @@
   </si>
   <si>
     <t>Сводная таблица товаров помещается в ширину экрана мобильного телефона</t>
+  </si>
+  <si>
+    <t>На всем сервисе меняется валюта на евро</t>
   </si>
 </sst>
 </file>
@@ -1147,6 +1147,114 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1220,12 +1328,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1245,108 +1347,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1680,97 +1680,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="88" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="94" t="s">
+      <c r="E1" s="56"/>
+      <c r="F1" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="95"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="62"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="104"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="1">
         <v>25569</v>
       </c>
-      <c r="D2" s="90" t="s">
+      <c r="D2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="91"/>
-      <c r="F2" s="96" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="97"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="64"/>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" thickBot="1">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="106"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="2">
         <v>25570</v>
       </c>
-      <c r="D3" s="92" t="s">
+      <c r="D3" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="93"/>
-      <c r="F3" s="98" t="s">
+      <c r="E3" s="60"/>
+      <c r="F3" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="99"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="80" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="50" t="s">
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="51"/>
-      <c r="J4" s="52"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="88"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1">
       <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="75"/>
+      <c r="C5" s="109"/>
       <c r="D5" s="5">
         <v>1</v>
       </c>
-      <c r="E5" s="83" t="s">
+      <c r="E5" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="83"/>
-      <c r="G5" s="84"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="75"/>
       <c r="H5" s="13">
         <v>1</v>
       </c>
@@ -1783,82 +1783,82 @@
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="77"/>
+      <c r="C6" s="68"/>
       <c r="D6" s="5">
         <v>2</v>
       </c>
-      <c r="E6" s="83" t="s">
+      <c r="E6" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="53" t="s">
+      <c r="F6" s="74"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="55"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="91"/>
     </row>
     <row r="7" spans="1:10" ht="45" customHeight="1" thickBot="1">
       <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="77"/>
+      <c r="C7" s="68"/>
       <c r="D7" s="6">
         <v>3</v>
       </c>
-      <c r="E7" s="72" t="s">
+      <c r="E7" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
       <c r="H7" s="16">
         <v>1</v>
       </c>
-      <c r="I7" s="58" t="s">
+      <c r="I7" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="59"/>
+      <c r="J7" s="95"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="85" t="s">
+      <c r="C8" s="70"/>
+      <c r="D8" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="60" t="s">
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="61"/>
-      <c r="J8" s="62"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="98"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="45"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="81"/>
       <c r="D9" s="7">
         <v>1</v>
       </c>
-      <c r="E9" s="68" t="s">
+      <c r="E9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="68"/>
-      <c r="G9" s="69"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="54"/>
       <c r="H9" s="17">
         <v>1</v>
       </c>
@@ -1873,18 +1873,18 @@
       <c r="A10" s="8">
         <v>1</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="47"/>
+      <c r="C10" s="83"/>
       <c r="D10" s="7">
         <v>2</v>
       </c>
-      <c r="E10" s="68" t="s">
+      <c r="E10" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="68"/>
-      <c r="G10" s="69"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="54"/>
       <c r="H10" s="17">
         <v>2</v>
       </c>
@@ -1899,18 +1899,18 @@
       <c r="A11" s="9">
         <v>2</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="57"/>
+      <c r="C11" s="93"/>
       <c r="D11" s="10">
         <v>3</v>
       </c>
-      <c r="E11" s="70" t="s">
+      <c r="E11" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="70"/>
-      <c r="G11" s="71"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="105"/>
       <c r="H11" s="17">
         <v>3</v>
       </c>
@@ -1922,12 +1922,12 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1">
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="65"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="101"/>
       <c r="H12" s="17">
         <v>4</v>
       </c>
@@ -1942,11 +1942,11 @@
       <c r="D13" s="11">
         <v>1</v>
       </c>
-      <c r="E13" s="66" t="s">
+      <c r="E13" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="66"/>
-      <c r="G13" s="67"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="103"/>
       <c r="H13" s="20">
         <v>5</v>
       </c>
@@ -1961,11 +1961,11 @@
       <c r="D14" s="11">
         <v>2</v>
       </c>
-      <c r="E14" s="66" t="s">
+      <c r="E14" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="66"/>
-      <c r="G14" s="67"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="103"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1977,11 +1977,11 @@
       <c r="D15" s="11">
         <v>3</v>
       </c>
-      <c r="E15" s="66" t="s">
+      <c r="E15" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="66"/>
-      <c r="G15" s="67"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="103"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -1993,11 +1993,11 @@
       <c r="D16" s="12">
         <v>4</v>
       </c>
-      <c r="E16" s="48" t="s">
+      <c r="E16" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="48"/>
-      <c r="G16" s="49"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="85"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -2040,6 +2040,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -2056,24 +2074,6 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2084,8 +2084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2352,10 +2352,10 @@
         <v>89</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="G15" s="32"/>
       <c r="H15" s="34"/>
@@ -2383,13 +2383,13 @@
         <v>59</v>
       </c>
       <c r="D17" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="32" t="s">
         <v>91</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>92</v>
       </c>
       <c r="G17" s="32"/>
       <c r="H17" s="35"/>
@@ -2405,13 +2405,13 @@
         <v>59</v>
       </c>
       <c r="D18" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="F18" s="32" t="s">
         <v>95</v>
-      </c>
-      <c r="F18" s="32" t="s">
-        <v>96</v>
       </c>
       <c r="G18" s="32"/>
       <c r="H18" s="35"/>
@@ -2430,10 +2430,10 @@
         <v>77</v>
       </c>
       <c r="E19" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="32" t="s">
         <v>97</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>98</v>
       </c>
       <c r="G19" s="32"/>
       <c r="H19" s="35"/>
@@ -2455,19 +2455,19 @@
         <v>12</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>59</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E21" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="32" t="s">
         <v>100</v>
-      </c>
-      <c r="F21" s="32" t="s">
-        <v>101</v>
       </c>
       <c r="G21" s="32"/>
       <c r="H21" s="35"/>
@@ -2477,19 +2477,19 @@
         <v>13</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>59</v>
       </c>
       <c r="D22" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="F22" s="32" t="s">
         <v>104</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>105</v>
       </c>
       <c r="G22" s="32"/>
       <c r="H22" s="35"/>
@@ -2508,13 +2508,13 @@
         <v>86</v>
       </c>
       <c r="E23" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="32" t="s">
-        <v>107</v>
-      </c>
       <c r="G23" s="32"/>
-      <c r="H23" s="37"/>
+      <c r="H23" s="35"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="42"/>
